--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\bahmani-sysrev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FC6D7-916B-4A19-A9FB-1821D445DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FC2B0-05C2-4218-90ED-3DEAA774F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ردیف</t>
   </si>
@@ -79,17 +79,45 @@
   </si>
   <si>
     <t>واریز وجه</t>
+  </si>
+  <si>
+    <t>استخراج داده - مقالات شانه</t>
+  </si>
+  <si>
+    <t>ارزیابی کیفیت - مقالات شانه</t>
+  </si>
+  <si>
+    <t>مجموع</t>
+  </si>
+  <si>
+    <t>تخفیف سفارش عمده</t>
+  </si>
+  <si>
+    <t>مبلغ قابل پرداخت</t>
+  </si>
+  <si>
+    <t>تخفیف معرفی</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>قیمت دلار</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="#,##0_)\ \T;[Red]\(#,##0\)\ \T"/>
-    <numFmt numFmtId="169" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0_)\ \T;[Red]\(#,##0\)\ \T"/>
+    <numFmt numFmtId="165" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0\ \T"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +127,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,21 +178,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +494,7 @@
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>10</v>
       </c>
@@ -460,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -472,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -492,103 +534,249 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f>E5*D5*$K$5</f>
+        <v>1200000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45684</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="13">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F18" si="0">E6*D6*$K$5</f>
+        <v>-160000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-320000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>2080000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9">
+        <f>SUM(F5:F18)</f>
+        <v>7720000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <f>-0.25*F19</f>
+        <v>-1930000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <f>-0.1*F19</f>
+        <v>-772000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E22" s="1">
         <v>-4500000</v>
       </c>
-      <c r="F5" s="1">
-        <f>E5*D5</f>
+      <c r="F22" s="1">
+        <f>E22*D22</f>
         <v>-4500000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G22" s="2">
         <v>45679</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60000</v>
-      </c>
-      <c r="F6" s="1">
-        <f>E6*D6</f>
-        <v>900000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45684</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-100000</v>
-      </c>
-      <c r="F7" s="1">
-        <f>E7*D7</f>
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="1">
-        <f>E8*D8</f>
-        <v>1500000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-100000</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9*D9</f>
-        <v>-200000</v>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\bahmani-sysrev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\freelance\scientific writing\bahmani-sysrev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FC2B0-05C2-4218-90ED-3DEAA774F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BBFFB-3EA9-4827-BD6F-193687B911DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_)\ \T;[Red]\(#,##0\)\ \T"/>
     <numFmt numFmtId="165" formatCode="[$-160429]dddd\,\ d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0\ \T"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ \T"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -196,7 +196,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -481,7 +481,7 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,14 +638,14 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E9" s="12">
         <v>1.5</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>3120000</v>
+        <v>4320000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -656,14 +656,14 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>2080000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
       </c>
       <c r="F19" s="9">
         <f>SUM(F5:F18)</f>
-        <v>7720000</v>
+        <v>9720000</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
       </c>
       <c r="F20" s="1">
         <f>-0.25*F19</f>
-        <v>-1930000</v>
+        <v>-2430000</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
       </c>
       <c r="F21" s="1">
         <f>-0.1*F19</f>
-        <v>-772000</v>
+        <v>-972000</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -777,6 +777,10 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
+      </c>
+      <c r="F23" s="9">
+        <f>SUM(F19:F22)</f>
+        <v>1818000</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\freelance\scientific writing\bahmani-sysrev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BBFFB-3EA9-4827-BD6F-193687B911DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9672D4-F418-488C-B99D-A8B77B39B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ردیف</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>قیمت دلار</t>
+  </si>
+  <si>
+    <t>تمیز کردن داده ها</t>
+  </si>
+  <si>
+    <t>متا آنالیز</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,12 +186,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,6 +215,15 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -480,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,6 +611,9 @@
         <f t="shared" ref="F6:F18" si="0">E6*D6*$K$5</f>
         <v>-160000</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -629,62 +659,107 @@
         <f t="shared" si="0"/>
         <v>-320000</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B9" s="14">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>36</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>1.5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>4320000</v>
       </c>
+      <c r="G9" s="21">
+        <v>45691</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="B10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>36</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>2880000</v>
       </c>
+      <c r="G10" s="22">
+        <v>45691</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="10"/>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>-320000</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="10"/>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="10"/>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>70</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -732,7 +807,7 @@
       </c>
       <c r="F19" s="9">
         <f>SUM(F5:F18)</f>
-        <v>9720000</v>
+        <v>17400000</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -741,7 +816,7 @@
       </c>
       <c r="F20" s="1">
         <f>-0.25*F19</f>
-        <v>-2430000</v>
+        <v>-4350000</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -750,7 +825,7 @@
       </c>
       <c r="F21" s="1">
         <f>-0.1*F19</f>
-        <v>-972000</v>
+        <v>-1740000</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -780,7 +855,7 @@
       </c>
       <c r="F23" s="9">
         <f>SUM(F19:F22)</f>
-        <v>1818000</v>
+        <v>6810000</v>
       </c>
     </row>
   </sheetData>

--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\freelance\scientific writing\bahmani-sysrev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9672D4-F418-488C-B99D-A8B77B39B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA77E5C1-2D13-4A2B-87C6-29BDCE47073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ردیف</t>
   </si>
@@ -57,12 +57,6 @@
     <t>چک مجدد داده های استخراج شده</t>
   </si>
   <si>
-    <t>دیرکرد در تحویل</t>
-  </si>
-  <si>
-    <t>تخفیف</t>
-  </si>
-  <si>
     <t>خریدار</t>
   </si>
   <si>
@@ -111,7 +105,10 @@
     <t>متا آنالیز</t>
   </si>
   <si>
-    <t>-</t>
+    <t>تخفیف مشتری قدیمی</t>
+  </si>
+  <si>
+    <t>تخفیف نهایی</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,12 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -505,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,17 +509,17 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -535,10 +528,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
-        <v>45685</v>
+        <v>45696</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -558,12 +551,12 @@
         <v>4</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -579,283 +572,217 @@
       </c>
       <c r="F5" s="1">
         <f>E5*D5*$K$5</f>
-        <v>1200000</v>
+        <v>825000</v>
       </c>
       <c r="G5" s="2">
         <v>45684</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="13">
-        <v>80000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F8" si="0">E6*D6*$K$5</f>
+        <v>1237500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
-        <v>-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F18" si="0">E6*D6*$K$5</f>
-        <v>-160000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1.5</v>
+      <c r="E7" s="10">
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1800000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45685</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>70</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>-320000</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>3850000</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14">
-        <v>36</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="0"/>
-        <v>4320000</v>
-      </c>
-      <c r="G9" s="21">
-        <v>45691</v>
+      <c r="F9" s="9">
+        <f>SUM(F5:F8)</f>
+        <v>7562500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
-        <v>4</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17">
-        <v>36</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="0"/>
-        <v>2880000</v>
-      </c>
-      <c r="G10" s="22">
-        <v>45691</v>
+      <c r="F10" s="1">
+        <f>-0.25*F9</f>
+        <v>-1890625</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="20">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>-320000</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <f>-0.1*F9</f>
+        <v>-756250</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
-        <v>30</v>
+      <c r="E12" s="1">
+        <v>-4500000</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>2400000</v>
+        <f>E12*D12</f>
+        <v>-4500000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45679</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>6</v>
-      </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="F13" s="1">
+        <v>-415625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F9:F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="10">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="10"/>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="10"/>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="10"/>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="10"/>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="C20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="14">
+        <v>36</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="16">
+        <f>E20*D20*$K$20</f>
+        <v>4806000</v>
+      </c>
+      <c r="G20" s="18">
+        <v>45691</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="13">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>36</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <f>E21*D21*$K$20</f>
+        <v>3204000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9">
+        <f>SUM(F20:F21)</f>
+        <v>8010000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F22*-0.2</f>
+        <v>-1602000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9">
-        <f>SUM(F5:F18)</f>
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
-        <f>-0.25*F19</f>
-        <v>-4350000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1">
-        <f>-0.1*F19</f>
-        <v>-1740000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-4500000</v>
-      </c>
-      <c r="F22" s="1">
-        <f>E22*D22</f>
-        <v>-4500000</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="9">
-        <f>SUM(F19:F22)</f>
-        <v>6810000</v>
+      <c r="F24" s="9">
+        <f>SUM(F22:F23)</f>
+        <v>6408000</v>
       </c>
     </row>
   </sheetData>
